--- a/Resources/Data/Excel/input/XYJ/Xiyouji.xlsx
+++ b/Resources/Data/Excel/input/XYJ/Xiyouji.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Documents\source\repos\SmartKG\src\Resources\Data\Excel\input\XYJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Documents\source\repos\SmartKG\Resources\Data\Excel\input\XYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92749005-EEB6-4512-880A-589974431DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4357C329-BB59-460F-9557-0E30481D0F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C6C66338-6363-4C6B-B282-ABDC91C13D80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{C6C66338-6363-4C6B-B282-ABDC91C13D80}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="2" r:id="rId1"/>
     <sheet name="Relations" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Entities!$A$1:$K$112</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Entities!$A$1:$K$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="370">
   <si>
     <t>实体名称</t>
   </si>
@@ -149,9 +149,6 @@
     <t>妖怪</t>
   </si>
   <si>
-    <t>黄眉老祖</t>
-  </si>
-  <si>
     <t>童子</t>
   </si>
   <si>
@@ -1107,6 +1104,57 @@
   </si>
   <si>
     <t>目标</t>
+  </si>
+  <si>
+    <t>劫持</t>
+  </si>
+  <si>
+    <t>弥勒佛</t>
+  </si>
+  <si>
+    <t>黄眉老祖、黄眉童子</t>
+  </si>
+  <si>
+    <t>孔雀大明王菩萨</t>
+  </si>
+  <si>
+    <t>卯日星官</t>
+  </si>
+  <si>
+    <t>毗蓝婆菩萨</t>
+  </si>
+  <si>
+    <t>得罪</t>
+  </si>
+  <si>
+    <t>收服</t>
+  </si>
+  <si>
+    <t>杀死</t>
+  </si>
+  <si>
+    <t>父女</t>
+  </si>
+  <si>
+    <t>天竺公主</t>
+  </si>
+  <si>
+    <t>冒充</t>
+  </si>
+  <si>
+    <t>二郎神</t>
+  </si>
+  <si>
+    <t>杨戬、杨二郎</t>
+  </si>
+  <si>
+    <t>灌江口</t>
+  </si>
+  <si>
+    <t>打伤</t>
+  </si>
+  <si>
+    <t>师徒</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1173,11 +1221,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,6 +1251,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1268,20 +1332,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08812A91-3341-47C1-B89E-42614130D828}" name="西游记人物统计" displayName="西游记人物统计" ref="A1:K112" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K112" xr:uid="{E35E8AD5-3FA3-4EA4-98A8-482D058819EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08812A91-3341-47C1-B89E-42614130D828}" name="西游记人物统计" displayName="西游记人物统计" ref="A1:K119" tableType="queryTable" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:K119" xr:uid="{E35E8AD5-3FA3-4EA4-98A8-482D058819EA}"/>
   <tableColumns count="11">
-    <tableColumn id="2" xr3:uid="{FB11D76A-8914-4C3D-BC45-AC9C0555E861}" uniqueName="2" name="实体名称" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2BBC7D2D-93D2-4DF5-96A2-83D32C37EF6C}" uniqueName="3" name="类别" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{A7A7D1BE-0B68-4575-84CE-084F19B46DCA}" uniqueName="4" name="别称" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{0180F936-F118-411B-9B5F-AAAEBA2A35A7}" uniqueName="5" name="原形" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1AECD955-9A19-4429-9FCE-A84952ADAEEA}" uniqueName="6" name="所在地" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{5CE11A24-AE48-4F8F-AD17-DDE5F1BA6822}" uniqueName="7" name="洞府" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E05BCAF7-619D-4031-B4F8-2AB97C41A174}" uniqueName="8" name="来源" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B4F0732D-3A4E-4692-8BCD-6BC67EB1B57D}" uniqueName="9" name="性别" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{4846F2F5-E9E4-41EA-959A-5A959FC6A8DA}" uniqueName="10" name="结局" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C6F4DEB7-4605-440B-BC28-F387F1CA48F0}" uniqueName="11" name="结局细节" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{6C474A3A-D07D-44C1-8015-C41024EC05C0}" uniqueName="12" name="背景" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FB11D76A-8914-4C3D-BC45-AC9C0555E861}" uniqueName="2" name="实体名称" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2BBC7D2D-93D2-4DF5-96A2-83D32C37EF6C}" uniqueName="3" name="类别" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A7A7D1BE-0B68-4575-84CE-084F19B46DCA}" uniqueName="4" name="别称" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{0180F936-F118-411B-9B5F-AAAEBA2A35A7}" uniqueName="5" name="原形" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1AECD955-9A19-4429-9FCE-A84952ADAEEA}" uniqueName="6" name="所在地" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5CE11A24-AE48-4F8F-AD17-DDE5F1BA6822}" uniqueName="7" name="洞府" queryTableFieldId="7" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E05BCAF7-619D-4031-B4F8-2AB97C41A174}" uniqueName="8" name="来源" queryTableFieldId="8" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B4F0732D-3A4E-4692-8BCD-6BC67EB1B57D}" uniqueName="9" name="性别" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{4846F2F5-E9E4-41EA-959A-5A959FC6A8DA}" uniqueName="10" name="结局" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{C6F4DEB7-4605-440B-BC28-F387F1CA48F0}" uniqueName="11" name="结局细节" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{6C474A3A-D07D-44C1-8015-C41024EC05C0}" uniqueName="12" name="背景" queryTableFieldId="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1584,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423E8407-E41F-4123-A6D8-AA724468AD7D}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1627,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1659,16 +1723,16 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -1694,16 +1758,16 @@
         <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -1729,16 +1793,16 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
@@ -1764,16 +1828,16 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
@@ -1799,16 +1863,16 @@
         <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
@@ -1822,36 +1886,36 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -1860,208 +1924,208 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
@@ -2070,33 +2134,33 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>33</v>
@@ -2105,243 +2169,243 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
@@ -2350,42 +2414,42 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -2394,68 +2458,68 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="K24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -2464,129 +2528,129 @@
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
@@ -2595,33 +2659,33 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
@@ -2630,33 +2694,33 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -2665,33 +2729,33 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
@@ -2700,138 +2764,138 @@
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
@@ -2840,39 +2904,39 @@
         <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>17</v>
@@ -2887,133 +2951,133 @@
         <v>9</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
@@ -3022,129 +3086,129 @@
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="K41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="K44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>33</v>
@@ -3152,24 +3216,24 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>33</v>
@@ -3180,17 +3244,17 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>33</v>
@@ -3199,22 +3263,22 @@
         <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>9</v>
@@ -3225,29 +3289,29 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>9</v>
@@ -3258,7 +3322,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>33</v>
@@ -3267,22 +3331,22 @@
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>9</v>
@@ -3293,7 +3357,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>33</v>
@@ -3302,22 +3366,22 @@
         <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>9</v>
@@ -3328,7 +3392,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>33</v>
@@ -3337,22 +3401,22 @@
         <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>9</v>
@@ -3363,180 +3427,180 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="1"/>
       <c r="E55" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>33</v>
@@ -3544,24 +3608,24 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>33</v>
@@ -3569,24 +3633,24 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>33</v>
@@ -3594,24 +3658,24 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>33</v>
@@ -3619,24 +3683,24 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>33</v>
@@ -3644,24 +3708,24 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>33</v>
@@ -3669,24 +3733,24 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>33</v>
@@ -3694,24 +3758,24 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>33</v>
@@ -3719,24 +3783,24 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>33</v>
@@ -3744,24 +3808,24 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>33</v>
@@ -3769,24 +3833,24 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>33</v>
@@ -3794,24 +3858,24 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>33</v>
@@ -3822,17 +3886,17 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>33</v>
@@ -3843,17 +3907,17 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>33</v>
@@ -3864,17 +3928,17 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>33</v>
@@ -3885,20 +3949,20 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3906,7 +3970,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="1"/>
@@ -3914,10 +3978,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3925,7 +3989,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="1"/>
@@ -3933,10 +3997,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3944,7 +4008,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="1"/>
@@ -3952,10 +4016,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3963,7 +4027,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="1"/>
@@ -3971,10 +4035,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3982,7 +4046,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="1"/>
@@ -3990,10 +4054,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4001,7 +4065,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I79" s="10"/>
       <c r="J79" s="1"/>
@@ -4009,10 +4073,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4020,7 +4084,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="1"/>
@@ -4028,10 +4092,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4039,7 +4103,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="1"/>
@@ -4047,10 +4111,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4058,7 +4122,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="1"/>
@@ -4066,10 +4130,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4077,7 +4141,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="1"/>
@@ -4085,10 +4149,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4096,7 +4160,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="1"/>
@@ -4104,10 +4168,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4115,7 +4179,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="1"/>
@@ -4123,10 +4187,10 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4134,7 +4198,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="1"/>
@@ -4142,10 +4206,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4153,7 +4217,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="1"/>
@@ -4161,10 +4225,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4172,7 +4236,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="1"/>
@@ -4180,10 +4244,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4191,18 +4255,18 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I89" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="I89" s="13"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4210,18 +4274,18 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I90" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="I90" s="13"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4229,41 +4293,37 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I91" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="I91" s="13"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>344</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I92" s="10"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4271,20 +4331,18 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>345</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I93" s="10"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4292,39 +4350,41 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I94" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="I94" s="13"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C95" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>346</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I95" s="13"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4332,7 +4392,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="1"/>
@@ -4340,29 +4400,33 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I97" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>343</v>
+      </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4370,20 +4434,20 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>345</v>
+        <v>81</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>344</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4391,18 +4455,18 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I99" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="I99" s="10"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4410,18 +4474,20 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I100" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>345</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4429,20 +4495,18 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>349</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I101" s="10"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4450,20 +4514,18 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>349</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I102" s="11"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4471,20 +4533,20 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>349</v>
+        <v>81</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4492,20 +4554,18 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>347</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I104" s="11"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4513,28 +4573,28 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>344</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I105" s="10"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="10" t="s">
+      <c r="H106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" s="11" t="s">
         <v>348</v>
       </c>
       <c r="J106" s="1"/>
@@ -4542,18 +4602,20 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="10" t="s">
+      <c r="H107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107" s="11" t="s">
         <v>348</v>
       </c>
       <c r="J107" s="1"/>
@@ -4561,18 +4623,20 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="10" t="s">
+      <c r="H108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" s="11" t="s">
         <v>348</v>
       </c>
       <c r="J108" s="1"/>
@@ -4580,67 +4644,71 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="H109" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I109" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="10" t="s">
-        <v>348</v>
-      </c>
+      <c r="H110" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I110" s="13"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="10" t="s">
-        <v>348</v>
+      <c r="H111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4649,10 +4717,143 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4665,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A7646-588E-4D04-BB7A-57ABAB82321C}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,18 +4879,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
         <v>351</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>352</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -4700,7 +4901,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -4711,7 +4912,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -4722,7 +4923,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -4733,1146 +4934,1520 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>337</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="C95" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>353</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>360</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>362</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>337</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>337</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>337</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>342</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>318</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>359</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>364</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>310</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>364</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>310</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>359</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>368</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>341</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>369</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>369</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>369</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Data/Excel/input/XYJ/Xiyouji.xlsx
+++ b/Resources/Data/Excel/input/XYJ/Xiyouji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Documents\source\repos\SmartKG\Resources\Data\Excel\input\XYJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4357C329-BB59-460F-9557-0E30481D0F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA99FD-E788-4A6C-94C0-74BD28047373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{C6C66338-6363-4C6B-B282-ABDC91C13D80}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Relations" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Relations!$A$1:$C$143</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Entities!$A$1:$K$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="372">
   <si>
     <t>实体名称</t>
   </si>
@@ -1155,6 +1156,12 @@
   </si>
   <si>
     <t>师徒</t>
+  </si>
+  <si>
+    <t>井木犴</t>
+  </si>
+  <si>
+    <t>神仙_道派</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1254,6 +1261,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1648,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423E8407-E41F-4123-A6D8-AA724468AD7D}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,6 +4866,14 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4866,15 +4885,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A7646-588E-4D04-BB7A-57ABAB82321C}">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:A143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4932,48 +4951,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>268</v>
+        <v>310</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>269</v>
+        <v>310</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4984,7 +5003,7 @@
         <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4995,40 +5014,40 @@
         <v>199</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>199</v>
+      <c r="B12" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>310</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>199</v>
+      <c r="B13" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>199</v>
+      <c r="B14" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5036,10 +5055,10 @@
         <v>310</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>276</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5047,32 +5066,32 @@
         <v>310</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>259</v>
+        <v>216</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>255</v>
+      <c r="B17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>256</v>
+      <c r="B18" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5080,21 +5099,21 @@
         <v>310</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>251</v>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5102,10 +5121,10 @@
         <v>310</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5113,351 +5132,351 @@
         <v>310</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>310</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>152</v>
+      <c r="B23" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>310</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>72</v>
+      <c r="B24" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>252</v>
+      <c r="B25" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>310</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>331</v>
+      <c r="B26" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>270</v>
+        <v>310</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>206</v>
+        <v>333</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>317</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>301</v>
+        <v>310</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>317</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>190</v>
+        <v>310</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>318</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>299</v>
+        <v>310</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>305</v>
+        <v>285</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>306</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>290</v>
+        <v>333</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>319</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>206</v>
+        <v>310</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>319</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>103</v>
+        <v>332</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>109</v>
+        <v>281</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>174</v>
+        <v>282</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>317</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>212</v>
+        <v>332</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>174</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>289</v>
+        <v>332</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>306</v>
+        <v>282</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>321</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>305</v>
+        <v>332</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>307</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>321</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>307</v>
+        <v>332</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>321</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>322</v>
+        <v>332</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>168</v>
+        <v>332</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>321</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>166</v>
+        <v>332</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>168</v>
+        <v>332</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>312</v>
+        <v>287</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>362</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>83</v>
+        <v>332</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,992 +5484,1006 @@
         <v>332</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>332</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>41</v>
+        <v>341</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>332</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>282</v>
+        <v>341</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>316</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>332</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>51</v>
+        <v>341</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>332</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>56</v>
+        <v>341</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>332</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>282</v>
+        <v>341</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>62</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>332</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>72</v>
+        <v>321</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>91</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>103</v>
+        <v>305</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>332</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>109</v>
+        <v>321</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>193</v>
+        <v>166</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>332</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>129</v>
+        <v>321</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>285</v>
+        <v>311</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>310</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>287</v>
+        <v>321</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>281</v>
+        <v>119</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>310</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>289</v>
+        <v>364</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>310</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>333</v>
+        <v>353</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>281</v>
+        <v>209</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>282</v>
+        <v>209</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>284</v>
+        <v>317</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>310</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>335</v>
+        <v>317</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>334</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>335</v>
+        <v>129</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>337</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>103</v>
+        <v>369</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>337</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>326</v>
+        <v>369</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>337</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>323</v>
+        <v>359</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>323</v>
+        <v>308</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>337</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>323</v>
+        <v>359</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>327</v>
+        <v>363</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>337</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>327</v>
+        <v>368</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>337</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>168</v>
+        <v>360</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>327</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>325</v>
+        <v>284</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>337</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>51</v>
+        <v>342</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>337</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>325</v>
+        <v>342</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>337</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>337</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>331</v>
+        <v>206</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>337</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>340</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>98</v>
+        <v>319</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>339</v>
+        <v>356</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>341</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>125</v>
+        <v>319</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>341</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>125</v>
+        <v>362</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>341</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>312</v>
+        <v>362</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>341</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>109</v>
+        <v>318</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>342</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>15</v>
+        <v>318</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>342</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>209</v>
+        <v>318</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>329</v>
+        <v>304</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>337</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>337</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>332</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>279</v>
+        <v>318</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>330</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>332</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>354</v>
+        <v>318</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>285</v>
+        <v>98</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>359</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>356</v>
+        <v>337</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>319</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>357</v>
+        <v>337</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>360</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>201</v>
+        <v>337</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>361</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>357</v>
+        <v>337</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>360</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>284</v>
+        <v>337</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>68</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>302</v>
+        <v>161</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>337</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>216</v>
+      <c r="B121" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>337</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>218</v>
+      <c r="B122" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>337</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>219</v>
+      <c r="B123" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>337</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>245</v>
+      <c r="B124" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>337</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>251</v>
+      <c r="B125" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>342</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>293</v>
+        <v>337</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>318</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>199</v>
+        <v>337</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>359</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>364</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>363</v>
+        <v>337</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>310</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>354</v>
+        <v>337</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>364</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>299</v>
+        <v>337</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>310</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>112</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>359</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>282</v>
+        <v>337</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>310</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>279</v>
+        <v>218</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>310</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>359</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>119</v>
+        <v>337</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>341</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>365</v>
+        <v>336</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>369</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>305</v>
+        <v>336</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>369</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>369</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>307</v>
+        <v>336</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C143">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
